--- a/EcoCrop/data/areaFalse.xlsx
+++ b/EcoCrop/data/areaFalse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>DIST.KM</t>
   </si>
@@ -112,12 +112,21 @@
   <si>
     <t>Train av suit</t>
   </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,6 +136,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -158,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -180,6 +195,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4652,16 +4684,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472109</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604629</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88033</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>289890</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4682,16 +4714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480391</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>63185</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4712,16 +4744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>372718</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472109</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>112881</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5034,7 +5066,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13916,13 +13948,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13936,9 +13968,11 @@
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.5">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -13966,39 +14000,67 @@
       <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <f>MAX(areaFalse!L2:L12)-MIN(areaFalse!L2:L12)</f>
         <v>0.26732627284491595</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <f>MAX(areaFalse!O2:O12)-MIN(areaFalse!O2:O12)</f>
         <v>0.78547257539943705</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>7.5422626788036407E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>0.389218164983621</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>9.34640522875817E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <v>0.41313223901602703</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>74.634894798884005</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>73.146030465294302</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="12">
+        <f>IF(D2&lt;=0.1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="13">
+        <f>IF(AND(E2&gt;=0.25,E2&lt;=0.5),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2*B2*J2</f>
+        <v>0.26732627284491595</v>
+      </c>
+      <c r="M2" s="13">
+        <f>IF(L2=MAX(L$2:L$17),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14022,45 +14084,77 @@
       <c r="G3" s="7">
         <v>0.27958930536887799</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>85.457171451285802</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>84.1281504375483</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J17" si="0">IF(D3&lt;=0.1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K17" si="1">IF(AND(E3&gt;=0.25,E3&lt;=0.5),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L17" si="2">K3*B3*J3</f>
+        <v>0.29162910519154606</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M17" si="3">IF(L3=MAX(L$2:L$17),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="11">
         <f>MAX(areaFalse!L24:L34)-MIN(areaFalse!L24:L34)</f>
         <v>0.36354095051779001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <f>MAX(areaFalse!O24:O34)-MIN(areaFalse!O24:O34)</f>
         <v>0.76127622131276007</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="11">
         <v>6.5019505851755498E-3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>0.191835682293055</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>8.8235294117647006E-3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="11">
         <v>0.21151994883577999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="11">
         <v>90.860636251025497</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="11">
         <v>89.717729382109795</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -14090,8 +14184,24 @@
       <c r="I5" s="2">
         <v>96.709874687942801</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -14121,8 +14231,24 @@
       <c r="I6" s="2">
         <v>97.162491064134002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -14152,8 +14278,24 @@
       <c r="I7" s="2">
         <v>93.455347305497298</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -14183,8 +14325,24 @@
       <c r="I8" s="2">
         <v>89.359312942604603</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -14208,14 +14366,30 @@
       <c r="G9" s="7">
         <v>0.36732490753914598</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>83.373162347721603</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>81.911939042534001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32905574485418398</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -14239,14 +14413,30 @@
       <c r="G10" s="7">
         <v>0.407240238856522</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>81.182946362638006</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>79.5813212176554</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.27239712188396004</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -14276,8 +14466,24 @@
       <c r="I11" s="2">
         <v>66.597072162503494</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -14307,70 +14513,118 @@
       <c r="I12" s="2">
         <v>64.953787917093507</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <f>MAX(areaFalse!L123:L133)-MIN(areaFalse!L123:L133)</f>
         <v>0.23876382958848907</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <f>MAX(areaFalse!O123:O133)-MIN(areaFalse!O123:O133)</f>
         <v>0.79339200201515203</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>9.6228868660598196E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>0.386270806323947</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="7">
         <v>0.106862745098039</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>0.40036508027518097</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>76.059290534963196</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>75.383575255574698</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23876382958848907</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="15">
         <f>MAX(areaFalse!L134:L144)-MIN(areaFalse!L134:L144)</f>
         <v>0.32440999080167898</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="15">
         <f>MAX(areaFalse!O134:O144)-MIN(areaFalse!O134:O144)</f>
         <v>0.77026099363748501</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="15">
         <v>3.7711313394018203E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="15">
         <v>0.29059029467339398</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="15">
         <v>4.6405228758169902E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="15">
         <v>0.31098007077829398</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="15">
         <v>85.588278503814806</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="15">
         <v>84.193335950764194</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.32440999080167898</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -14400,67 +14654,115 @@
       <c r="I15" s="2">
         <v>91.478917479670997</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <f>MAX(areaFalse!L156:L166)-MIN(areaFalse!L156:L166)</f>
         <v>0.35398560359008602</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <f>MAX(areaFalse!O156:O166)-MIN(areaFalse!O156:O166)</f>
         <v>0.76321875376938897</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>2.47074122236671E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>0.26778489789365101</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="7">
         <v>1.7647058823529401E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>0.26855088154640799</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>83.359946936717705</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>83.325943367153997</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35398560359008602</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11">
         <f>MAX(areaFalse!L167:L177)-MIN(areaFalse!L167:L177)</f>
         <v>0.18363128136081497</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <f>MAX(areaFalse!O167:O177)-MIN(areaFalse!O167:O177)</f>
         <v>0.8096157619869091</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="11">
         <v>0.106631989596879</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="11">
         <v>0.458596405566986</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="11">
         <v>0.11764705882352899</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="11">
         <v>0.47699106741976699</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="11">
         <v>73.444733420025997</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="11">
         <v>71.800496309567094</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EcoCrop/data/areaFalse.xlsx
+++ b/EcoCrop/data/areaFalse.xlsx
@@ -231,10 +231,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12621374181505735"/>
+          <c:x val="0.12621374181505737"/>
           <c:y val="8.6378877665070963E-2"/>
-          <c:w val="0.64544690624749113"/>
-          <c:h val="0.76412084088332011"/>
+          <c:w val="0.64544690624749124"/>
+          <c:h val="0.76412084088332022"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1759,11 +1759,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54509952"/>
-        <c:axId val="54511872"/>
+        <c:axId val="53384704"/>
+        <c:axId val="53386240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54509952"/>
+        <c:axId val="53384704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1782,12 +1782,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54511872"/>
+        <c:crossAx val="53386240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54511872"/>
+        <c:axId val="53386240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1818,7 +1818,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1832,1644 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54509952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78752332825283944"/>
-          <c:y val="7.6464810455394105E-2"/>
-          <c:w val="0.18549433153342212"/>
-          <c:h val="0.70704034418378114"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12621374181505737"/>
-          <c:y val="8.6378877665070963E-2"/>
-          <c:w val="0.64544690624749124"/>
-          <c:h val="0.76412084088332022"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>MIN</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$167:$O$177</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.19029381613072399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.305522401434208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44331667194295898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58819265929127695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66004066147776297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70964544217597003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75357507885039499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84498568743702696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91365386298850504</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98373208225429498</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99990957811763304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MAX</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$156:$O$166</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.236706589569006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38252016181272502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.553527999590672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72064428504157196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79370673305927397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83949634927901995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87269891051779802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.930849224382441</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97462916580451198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99959751395898999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999925343338395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>MODE</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$145:$O$155</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.194238321318805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31447515010419702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45659261080810198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60398884550173004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68433429230213105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74205426898719995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78592102224581195</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86221338911552203</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91967467775494005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97867409851037601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99987083647153996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>MEAN</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$134:$O$144</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.22959510988720899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36878514282720198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52815450778317297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68515410063762305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76707409802011906</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.820635165377394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85748055013204705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92205022528556602</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96520124864644496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99443540010386799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99985610352469401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>1</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$2:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.214386571656773</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34143191295092801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48215944533114302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62030597683315702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69490637355611495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74997963898227404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79602289689142003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87138933928833595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92104260212390798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97978069646943</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99985914705621004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$13:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.21646760527384001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.348300536823409</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50254667819512699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66073629941427203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74465578953505795</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80204605049911004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84114888214847605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.908644697073139</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95433263428110304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99196898260282595</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999866651579428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>3</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$24:$O$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.238649437206256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.386960931629171</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56232287163528305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73102793201902005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79950079104151395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84302101686506004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87464187190753795</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93099250938203404</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97461274895510197</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99938939106925995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99992565851901605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>4</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$35:$O$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.16922524995395699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27607637297820298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40693222606012602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54665219258312203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62230347367720595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67832857828825999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72374610651041804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81911994580027403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89663438616382596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97998319425591496</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99988951438178997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$46:$O$56</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.16995748666903401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27721216005419103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40831239421280602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54809936993384001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62401788044858597</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68016605811928199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72553581958223601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82098759112075903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89833612688310305</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98011330549945597</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99988898830881601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>6</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$57:$O$67</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.238057939810847</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38452896952536603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55542708647616501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72089714530655802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79380264682812496</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83859373614934796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87079051270568997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92860753588648404</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97246358907147501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99845237488692395</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.999911160425205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>7</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$68:$O$78</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.23563346058267901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37993176383513799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54736355022201699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71074207359630903</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78748003602703798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83436576967257803</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86763156530804098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92723905511399696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97074425412192</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.996963511687044</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99985523688857103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>8</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$79:$O$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.23463904373761901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37547301993831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53710251579266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69485253829361304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77548622563293401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82686931347020598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86175827793851001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.923832409618077</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96636423979475905</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99449671605701195</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99983454339398004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>9</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$90:$O$100</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.226752100724772</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36007916216112001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51114295268052601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65712797759331298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73575169469618096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79188910911775701</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83302051823945</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90093032839620202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94515672828594</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98683791985865399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99983383184973496</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>10</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$101:$O$111</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.207350049833774</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32614656222869298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.455300064897118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58355761828408304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65169276203707205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70452417863628303</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75161436364443301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84910269105168201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91073816855277401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97777542639936998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99985062492387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>11</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$112:$O$122</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.207689783648528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.326955770657328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45669943476359598</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58499295691337905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65290760164211803</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70557955450469101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75328788287992399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84805553131352196</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91036961004634298</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97815099482165202</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99985088589975002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>12</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>areaFalse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>areaFalse!$O$123:$O$133</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.20646997748065199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.328484715545655</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46341300877770902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59520328288065005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66607695448777904</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71887683641432099</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76619622317258895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85701812301359304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91747052617805902</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97987795938412603</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99986197949580402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="71938432"/>
-        <c:axId val="71940352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="71938432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71940352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="71940352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Fraction of the suitable area</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> that is within the buffer</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71938432"/>
+        <c:crossAx val="53384704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3498,6 +1860,1642 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1262137418150574"/>
+          <c:y val="8.6378877665070963E-2"/>
+          <c:w val="0.64544690624749135"/>
+          <c:h val="0.76412084088332033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MIN</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$167:$O$177</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.19029381613072399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.305522401434208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44331667194295898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58819265929127695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66004066147776297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70964544217597003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75357507885039499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84498568743702696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91365386298850504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98373208225429498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99990957811763304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MAX</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$156:$O$166</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.236706589569006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38252016181272502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.553527999590672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72064428504157196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79370673305927397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83949634927901995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87269891051779802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.930849224382441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97462916580451198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99959751395898999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999925343338395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MODE</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$145:$O$155</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.194238321318805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31447515010419702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45659261080810198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60398884550173004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68433429230213105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74205426898719995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78592102224581195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86221338911552203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91967467775494005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97867409851037601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99987083647153996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MEAN</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$134:$O$144</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.22959510988720899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36878514282720198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52815450778317297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68515410063762305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76707409802011906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.820635165377394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85748055013204705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92205022528556602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96520124864644496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99443540010386799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99985610352469401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.214386571656773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34143191295092801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48215944533114302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62030597683315702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69490637355611495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74997963898227404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79602289689142003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87138933928833595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92104260212390798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97978069646943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99985914705621004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$13:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.21646760527384001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.348300536823409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50254667819512699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66073629941427203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74465578953505795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80204605049911004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84114888214847605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.908644697073139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95433263428110304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99196898260282595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999866651579428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$24:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.238649437206256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.386960931629171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56232287163528305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73102793201902005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79950079104151395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84302101686506004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87464187190753795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93099250938203404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97461274895510197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99938939106925995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99992565851901605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$35:$O$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.16922524995395699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27607637297820298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40693222606012602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54665219258312203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62230347367720595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67832857828825999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72374610651041804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81911994580027403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89663438616382596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97998319425591496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99988951438178997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$46:$O$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.16995748666903401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27721216005419103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40831239421280602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54809936993384001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62401788044858597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68016605811928199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72553581958223601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82098759112075903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89833612688310305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98011330549945597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99988898830881601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$57:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.238057939810847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38452896952536603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55542708647616501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72089714530655802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79380264682812496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83859373614934796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87079051270568997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92860753588648404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97246358907147501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99845237488692395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999911160425205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$68:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.23563346058267901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37993176383513799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54736355022201699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71074207359630903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78748003602703798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83436576967257803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86763156530804098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92723905511399696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97074425412192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.996963511687044</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99985523688857103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$79:$O$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.23463904373761901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37547301993831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53710251579266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69485253829361304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77548622563293401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82686931347020598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86175827793851001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.923832409618077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96636423979475905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99449671605701195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99983454339398004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$90:$O$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.226752100724772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36007916216112001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51114295268052601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65712797759331298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73575169469618096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79188910911775701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83302051823945</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90093032839620202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94515672828594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98683791985865399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99983383184973496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$101:$O$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.207350049833774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32614656222869298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.455300064897118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58355761828408304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65169276203707205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70452417863628303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75161436364443301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84910269105168201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91073816855277401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97777542639936998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99985062492387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$112:$O$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.207689783648528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.326955770657328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45669943476359598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58499295691337905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65290760164211803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70557955450469101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75328788287992399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84805553131352196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91036961004634298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97815099482165202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99985088589975002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>12</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>areaFalse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>areaFalse!$O$123:$O$133</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.20646997748065199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.328484715545655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46341300877770902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59520328288065005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66607695448777904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71887683641432099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76619622317258895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85701812301359304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91747052617805902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97987795938412603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99986197949580402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="71052672"/>
+        <c:axId val="71066752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71052672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71066752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71066752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Fraction of the suitable area</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> that is within the buffer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71052672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78752332825283922"/>
+          <c:y val="7.6464810455394105E-2"/>
+          <c:w val="0.18549433153342232"/>
+          <c:h val="0.70704034418378148"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
@@ -3509,10 +3507,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13479214850441626"/>
-          <c:y val="5.1431620806239406E-2"/>
-          <c:w val="0.8144023655766105"/>
-          <c:h val="0.73324948760606712"/>
+          <c:x val="0.13479214850441629"/>
+          <c:y val="5.143162080623942E-2"/>
+          <c:w val="0.81440236557661039"/>
+          <c:h val="0.73324948760606723"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3782,11 +3780,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81010688"/>
-        <c:axId val="81059200"/>
+        <c:axId val="71124480"/>
+        <c:axId val="71126016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81010688"/>
+        <c:axId val="71124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,14 +3800,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81059200"/>
+        <c:crossAx val="71126016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81059200"/>
+        <c:axId val="71126016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3835,381 +3833,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81010688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.58933341986004306"/>
-          <c:y val="2.0883252465336871E-2"/>
-          <c:w val="0.33636101357991433"/>
-          <c:h val="0.13974101445791659"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13479214850441629"/>
-          <c:y val="5.143162080623942E-2"/>
-          <c:w val="0.81440236557661039"/>
-          <c:h val="0.73324948760606723"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>range!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test omission rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="4"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>range!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>range!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7.5422626788036407E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3407022106632001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5019505851755498E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3003901170351099E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.90117035110533E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.69050715214564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.86085825747724E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6319895968790593E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8829648894668401E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17165149544863501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17165149544863501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6228868660598196E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7711313394018203E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5604681404421301E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.47074122236671E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.106631989596879</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>range!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train omission rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="4"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>range!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>range!$F$2:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>9.34640522875817E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3006535947712398E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.8235294117647006E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9607843137254902E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5751633986928098E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7973856209150301E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0392156862745101E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1568627450980402E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.10457516339869299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.191830065359477</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18366013071895401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.106862745098039</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6405228758169902E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9281045751634002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7647058823529401E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11764705882352899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="107294720"/>
-        <c:axId val="107744256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="107294720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="107744256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="107744256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Omission</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107294720"/>
+        <c:crossAx val="71124480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4242,7 +3866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -4266,11 +3890,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>range!$E$1</c:f>
+              <c:f>range!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test error</c:v>
+                  <c:v>Test omission rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4337,57 +3961,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>range!$E$2:$E$17</c:f>
+              <c:f>range!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.389218164983621</c:v>
+                  <c:v>7.5422626788036407E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25594069266106401</c:v>
+                  <c:v>2.3407022106632001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.191835682293055</c:v>
+                  <c:v>6.5019505851755498E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.93157554712109E-2</c:v>
+                  <c:v>1.3003901170351099E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3320632196929806E-2</c:v>
+                  <c:v>3.90117035110533E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18185066336467701</c:v>
+                  <c:v>1.69050715214564E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23641061098535501</c:v>
+                  <c:v>2.86085825747724E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.354508374171425</c:v>
+                  <c:v>6.6319895968790593E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39342236609611902</c:v>
+                  <c:v>9.8829648894668401E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49003224330633999</c:v>
+                  <c:v>0.17165149544863501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49637135831714502</c:v>
+                  <c:v>0.17165149544863501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.386270806323947</c:v>
+                  <c:v>9.6228868660598196E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29059029467339398</c:v>
+                  <c:v>3.7711313394018203E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21417915164642501</c:v>
+                  <c:v>1.5604681404421301E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26778489789365101</c:v>
+                  <c:v>2.47074122236671E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.458596405566986</c:v>
+                  <c:v>0.106631989596879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,11 +4022,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>range!$G$1</c:f>
+              <c:f>range!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Train error</c:v>
+                  <c:v>Train omission rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4469,68 +4093,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>range!$G$2:$G$17</c:f>
+              <c:f>range!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.41313223901602703</c:v>
+                  <c:v>9.34640522875817E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27958930536887799</c:v>
+                  <c:v>3.3006535947712398E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21151994883577999</c:v>
+                  <c:v>8.8235294117647006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7713377354493897E-2</c:v>
+                  <c:v>1.9607843137254902E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10205620517884</c:v>
+                  <c:v>4.5751633986928098E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.195665877589494</c:v>
+                  <c:v>1.7973856209150301E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25404356636608399</c:v>
+                  <c:v>3.0392156862745101E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36732490753914598</c:v>
+                  <c:v>7.1568627450980402E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.407240238856522</c:v>
+                  <c:v>0.10457516339869299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51435400980508394</c:v>
+                  <c:v>0.191830065359477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51733407459920699</c:v>
+                  <c:v>0.18366013071895401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40036508027518097</c:v>
+                  <c:v>0.106862745098039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31098007077829398</c:v>
+                  <c:v>4.6405228758169902E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21773518824233701</c:v>
+                  <c:v>1.9281045751634002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26855088154640799</c:v>
+                  <c:v>1.7647058823529401E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47699106741976699</c:v>
+                  <c:v>0.11764705882352899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93326720"/>
-        <c:axId val="93369472"/>
+        <c:axId val="71167360"/>
+        <c:axId val="71185536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93326720"/>
+        <c:axId val="71167360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,14 +4170,388 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93369472"/>
+        <c:crossAx val="71185536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93369472"/>
+        <c:axId val="71185536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Omission</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71167360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58933341986004273"/>
+          <c:y val="2.0883252465336885E-2"/>
+          <c:w val="0.33636101357991455"/>
+          <c:h val="0.13974101445791667"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13479214850441634"/>
+          <c:y val="5.1431620806239441E-2"/>
+          <c:w val="0.81440236557661017"/>
+          <c:h val="0.73324948760606745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>range!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>range!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>range!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.389218164983621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25594069266106401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191835682293055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.93157554712109E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3320632196929806E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18185066336467701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23641061098535501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.354508374171425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39342236609611902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49003224330633999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49637135831714502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.386270806323947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29059029467339398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21417915164642501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26778489789365101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.458596405566986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>range!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>range!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>range!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.41313223901602703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27958930536887799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21151994883577999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7713377354493897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10205620517884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.195665877589494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25404356636608399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36732490753914598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.407240238856522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51435400980508394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51733407459920699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40036508027518097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31098007077829398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21773518824233701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26855088154640799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47699106741976699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="71206400"/>
+        <c:axId val="71207936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71206400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71207936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4576,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93326720"/>
+        <c:crossAx val="71206400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,10 +4587,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.58613907857126324"/>
-          <c:y val="0.60355571832882915"/>
-          <c:w val="0.33636101357991455"/>
-          <c:h val="0.13974101445791667"/>
+          <c:x val="0.58613907857126313"/>
+          <c:y val="0.60355571832882926"/>
+          <c:w val="0.33636101357991466"/>
+          <c:h val="0.13974101445791673"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4605,7 +4603,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13954,7 +13952,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14713,7 +14711,7 @@
         <f t="shared" si="2"/>
         <v>0.35398560359008602</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
